--- a/excel/isha-later-timings.xlsx
+++ b/excel/isha-later-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B6EC7-0C9D-4CA5-B5E6-1F7FFC9D7DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B328E639-7183-47FB-AE5E-5CF24C09F411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>masjid</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Masjid-e-Farooque(Darul-ul-uloom Ambur)</t>
+  </si>
+  <si>
+    <t>Masjid-E-Habeeb</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,6 +401,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
